--- a/source/00_data/manual_input/exiobase_stressors_impacts.xlsx
+++ b/source/00_data/manual_input/exiobase_stressors_impacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotteplinke/Documents/research/repositories/paper_c1_m3/source/00_data/manual input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlotteplinke/Documents/research/repositories/paper_c1_m3/source/00_data/manual_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C94EB8-7D89-3041-B710-C752D0A0F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EAC650-9864-D744-9318-261C3BA55F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-19500" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="-19580" windowWidth="23740" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stressors" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1314">
   <si>
     <t>unit</t>
   </si>
@@ -4340,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439:I439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8274,21 +8274,6 @@
       <c r="B439" t="s">
         <v>28</v>
       </c>
-      <c r="C439">
-        <v>1</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G439" t="s">
-        <v>1285</v>
-      </c>
-      <c r="H439">
-        <v>1</v>
-      </c>
-      <c r="I439" t="s">
-        <v>1309</v>
-      </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
@@ -14106,8 +14091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58849AD-5EC6-A84A-A80C-0C6BFFEC9A7D}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
